--- a/template/template_kenaikan_berkala.xlsx
+++ b/template/template_kenaikan_berkala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\laporan-kepegawaian\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F907B9-895D-45AE-AE17-122620AAD57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A566B27-A110-406A-B04C-25E76D227289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{E1E03EC9-19E2-40A2-85E8-9BEBA5157A24}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +117,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -158,11 +165,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -172,6 +176,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,7 +497,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,128 +518,123 @@
     <col min="17" max="18" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
     </row>
+    <row r="2" spans="1:16" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="4" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="4" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4" t="s">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="L5:M5"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
@@ -642,6 +645,12 @@
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="N4:N6"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/template/template_kenaikan_berkala.xlsx
+++ b/template/template_kenaikan_berkala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\laporan-kepegawaian\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A566B27-A110-406A-B04C-25E76D227289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E723C1D-A572-4F96-B794-C8C881E17C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{E1E03EC9-19E2-40A2-85E8-9BEBA5157A24}"/>
   </bookViews>
@@ -170,16 +170,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,125 +497,126 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="L2" sqref="L1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.44140625" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
-    <col min="4" max="4" width="51.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="28.44140625" customWidth="1"/>
     <col min="7" max="7" width="10.21875" customWidth="1"/>
-    <col min="8" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" customWidth="1"/>
-    <col min="12" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="36.44140625" customWidth="1"/>
-    <col min="15" max="15" width="38.109375" customWidth="1"/>
-    <col min="16" max="16" width="18.21875" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="10" width="7.44140625" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" customWidth="1"/>
+    <col min="12" max="13" width="9.109375" customWidth="1"/>
+    <col min="14" max="14" width="32.109375" customWidth="1"/>
+    <col min="15" max="15" width="30.33203125" customWidth="1"/>
+    <col min="16" max="16" width="18.44140625" customWidth="1"/>
     <col min="17" max="18" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3" t="s">
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="1" t="s">
         <v>13</v>
       </c>
@@ -629,9 +630,9 @@
       <c r="M6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="16">
